--- a/beyond_project/graph&documents/gphis_数据字典_2017-04-14_v1.0.xlsx
+++ b/beyond_project/graph&documents/gphis_数据字典_2017-04-14_v1.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="50">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,6 +29,195 @@
   </si>
   <si>
     <t>位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>患者来到诊所后所登记的基本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>患者信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接诊，诊断，患者信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诊断信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当次诊断的诊断信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诊断信息=诊断症状</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗，病历表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处方信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>患者当次就诊医生所开具的处方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处方信息=药品名称+药品数量+药品规格+药品单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算，病历表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处置信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>患者当次就诊医生所开具的处置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>患者当次就诊的费用信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用信息=处方总价+处置总价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>患者信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储所有患者基本信息的表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>患者信息表=姓名+性别+年龄+身高+体重+联系方式+既往病史+过敏史+手术史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>患者信息=姓名+性别+年龄+身高+体重+联系方式+既往病史+过敏史+手术史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处置信息=处置名称
++数量+单价+规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病历表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>患者每次就诊的病历信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病历表=患者信息+诊断+处方+处置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>患者每次就诊的费用信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用表=处方费用+处置费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接诊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诊断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生每次接诊病患的操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入：患者信息
+输出：患者信息+接诊信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接诊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生对患者本次就诊进行诊断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入：患者信息
+输出：患者诊断信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诊断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生对患者进行治疗项目开具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入：诊断信息
+输出：处方信息、处置信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生为本次诊疗过程进行结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入：处方信息、处置信息
+输出：费用信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -36,7 +225,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,6 +240,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -60,7 +258,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -68,12 +266,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -378,44 +603,386 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E29" sqref="A1:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.25" customWidth="1"/>
+    <col min="3" max="3" width="5" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
